--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/60_Muş_2023.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/60_Muş_2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{01C99624-E59D-4BD3-B272-D95C2BD7E0A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C13F38AE-61E8-4CBD-BF67-1A6722543D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="676" xr2:uid="{5D1795C4-F1A2-4650-8C0C-34C94B3CBD76}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="676" xr2:uid="{BEB15B6E-5B3E-4339-A0D0-2FADD5C3B604}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="124" r:id="rId1"/>
@@ -958,13 +958,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{D4BADAAF-1F2A-427B-BFCF-94CD93B78FA7}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{2A7F0236-F06C-4E44-A032-99A397BDBBB5}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{A5C7729E-B590-4FA8-9DA5-92C4FAD566D8}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{1797DADB-A106-4080-892C-BD167FCBFB72}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{F2CBDF2E-D5E4-48F8-8086-1CF22607E737}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{05758195-E2DA-431D-9B68-F664C298BD71}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{E86E65AF-4794-4A82-8128-E2CA6CEFF7D3}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{C52EA0EB-F649-4ABE-A723-CCDEE4C1F228}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{2712AED9-7B77-4D18-BDCD-DB1DF4721F99}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{78FFC9D7-1C7A-4E55-AC23-89294567C809}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{1C2EB6FF-0A2E-4639-98E4-53317BE37B45}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{CCB3A603-BA63-4223-9BA5-641043C4E2E7}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{A2546C35-D448-430D-A946-0C35B283230B}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{37743487-D5A2-42D3-A1A0-D027F500934C}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1334,7 +1334,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9807CAD8-EBB5-4BC4-97AA-D90235795A9C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B702B31-FF8E-4FE9-AC6C-4EC197E825D5}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2568,7 +2568,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B34BFA4-F66B-47C5-8272-D834CB644A48}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4AF255F-9D31-49D5-A2DF-465AD9E624D2}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3771,7 +3771,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F8FCB0-FD96-49C2-8C09-433AF43D7DC4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E84A639A-EC1B-4AF4-9869-5785C5FB79F7}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -4960,7 +4960,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBCC8E1C-0368-4E0F-BB27-4DE6535432F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECDC6323-12B7-4E63-8102-44ABB93617EB}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6133,7 +6133,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B7A4EBD-2AF6-4871-B122-187F8BE61772}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5895C332-E244-44F6-861A-AE4299077422}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7368,7 +7368,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C0645FD-CB0A-47C5-8D0C-BD88CF58799E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DE0F482-95BE-4BB5-B261-E08D5FA52AD2}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8603,7 +8603,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF809E1E-53C1-4F1C-8148-F68DBE53DD8C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2889176-B79C-4E26-961E-81A1EA8939C8}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -9838,7 +9838,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4DF370F-E35F-410D-92C7-4A6DC7B5B27E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F68861C-F652-4A16-868D-6382136182E1}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -11073,7 +11073,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86C05116-59F2-44F6-9992-FC1B51AFE0DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B358EF0-8877-4CBE-ADEA-44485F83874D}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12308,7 +12308,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C365C3C5-E37B-49F4-8756-A43D6F276330}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E7B6DCF-7B8F-436F-AD1D-B26A50341955}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13531,7 +13531,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD3FFCD-6045-4BA3-9C79-0CEADF08C9A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9901CD9-3903-455D-A415-7EDDEC167CE7}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -14754,7 +14754,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3F6B581-23E7-491B-BBE2-83FD744C6ACF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3DD3669-B2EA-4313-8D72-F27AD4DFA521}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
